--- a/results/palaepaphos/data/tga_PP.xlsx
+++ b/results/palaepaphos/data/tga_PP.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uine\Documents\R\MB\results\palaepaphos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3AB7C3-83D6-44F5-BA61-8B8AE5172A15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B4F3B6-36F7-4D62-B3D9-0691B7639565}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10155" yWindow="0" windowWidth="17715" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10785" yWindow="510" windowWidth="17715" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TGA701-Table" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="173">
   <si>
     <t>Name</t>
   </si>
@@ -494,6 +505,51 @@
   </si>
   <si>
     <t>Mass_950</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Hadjuabudllah l1</t>
+  </si>
+  <si>
+    <t>soil layer 1</t>
+  </si>
+  <si>
+    <t>Hadjuabudllah l2</t>
+  </si>
+  <si>
+    <t>soil layer 2</t>
+  </si>
+  <si>
+    <t>Laona soil l1</t>
+  </si>
+  <si>
+    <t>Laona soil l2</t>
+  </si>
+  <si>
+    <t>Laona soil l3</t>
+  </si>
+  <si>
+    <t>soil layer 3</t>
+  </si>
+  <si>
+    <t>LA54:4</t>
+  </si>
+  <si>
+    <t>mudbrick</t>
+  </si>
+  <si>
+    <t>LA59:2</t>
+  </si>
+  <si>
+    <t>LA54:7</t>
   </si>
 </sst>
 </file>
@@ -503,7 +559,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,6 +693,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -980,10 +1042,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1339,10 +1406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1351,7 +1418,7 @@
     <col min="4" max="7" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1373,8 +1440,14 @@
       <c r="G1" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1396,8 +1469,14 @@
       <c r="G2" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1419,8 +1498,14 @@
       <c r="G3" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1442,8 +1527,14 @@
       <c r="G4" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1465,8 +1556,14 @@
       <c r="G5" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1488,8 +1585,14 @@
       <c r="G6" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1511,8 +1614,14 @@
       <c r="G7" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1534,8 +1643,14 @@
       <c r="G8" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1557,8 +1672,14 @@
       <c r="G9" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1580,8 +1701,14 @@
       <c r="G10" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1603,8 +1730,14 @@
       <c r="G11" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1626,8 +1759,14 @@
       <c r="G12" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1788,14 @@
       <c r="G13" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -1672,8 +1817,14 @@
       <c r="G14" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -1695,8 +1846,14 @@
       <c r="G15" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1718,8 +1875,14 @@
       <c r="G16" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -1741,8 +1904,14 @@
       <c r="G17" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -1764,8 +1933,14 @@
       <c r="G18" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1787,8 +1962,14 @@
       <c r="G19" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -1810,8 +1991,14 @@
       <c r="G20" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -1833,8 +2020,14 @@
       <c r="G21" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -1856,8 +2049,14 @@
       <c r="G22" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>146</v>
       </c>
@@ -1879,8 +2078,14 @@
       <c r="G23" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>147</v>
       </c>
@@ -1902,8 +2107,14 @@
       <c r="G24" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>148</v>
       </c>
@@ -1925,8 +2136,14 @@
       <c r="G25" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>149</v>
       </c>
@@ -1948,8 +2165,14 @@
       <c r="G26" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>150</v>
       </c>
@@ -1971,8 +2194,14 @@
       <c r="G27" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>151</v>
       </c>
@@ -1994,8 +2223,14 @@
       <c r="G28" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>152</v>
       </c>
@@ -2017,8 +2252,14 @@
       <c r="G29" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>153</v>
       </c>
@@ -2040,8 +2281,14 @@
       <c r="G30" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
@@ -2062,6 +2309,12 @@
       </c>
       <c r="G31" s="2" t="s">
         <v>145</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/results/palaepaphos/data/tga_PP.xlsx
+++ b/results/palaepaphos/data/tga_PP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uine\Documents\R\MB\results\palaepaphos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B4F3B6-36F7-4D62-B3D9-0691B7639565}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC29FDB-3D8C-4BF0-9D41-9B85253C4470}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10785" yWindow="510" windowWidth="17715" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4770" yWindow="105" windowWidth="17715" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TGA701-Table" sheetId="1" r:id="rId1"/>
@@ -1406,16 +1406,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1882,7 +1883,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -1911,7 +1912,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -1940,7 +1941,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1969,7 +1970,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -1998,7 +1999,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -2027,7 +2028,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -2056,7 +2057,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>146</v>
       </c>
@@ -2079,13 +2080,13 @@
         <v>116</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>147</v>
       </c>
@@ -2108,13 +2109,15 @@
         <v>120</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>148</v>
       </c>
@@ -2137,13 +2140,15 @@
         <v>123</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>149</v>
       </c>
@@ -2166,13 +2171,15 @@
         <v>126</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>150</v>
       </c>
@@ -2195,13 +2202,15 @@
         <v>129</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>151</v>
       </c>
@@ -2224,13 +2233,15 @@
         <v>133</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>152</v>
       </c>
@@ -2258,8 +2269,10 @@
       <c r="I29" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>153</v>
       </c>
@@ -2282,13 +2295,15 @@
         <v>141</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
@@ -2316,6 +2331,8 @@
       <c r="I31" s="2" t="s">
         <v>160</v>
       </c>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/palaepaphos/data/tga_PP.xlsx
+++ b/results/palaepaphos/data/tga_PP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uine\Documents\R\MB\results\palaepaphos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC29FDB-3D8C-4BF0-9D41-9B85253C4470}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B7A41B-E10A-41ED-BD3C-68CC9003ACCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="105" windowWidth="17715" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="0" windowWidth="16575" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TGA701-Table" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="166">
   <si>
     <t>Name</t>
   </si>
@@ -516,30 +516,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Hadjuabudllah l1</t>
-  </si>
-  <si>
-    <t>soil layer 1</t>
-  </si>
-  <si>
-    <t>Hadjuabudllah l2</t>
-  </si>
-  <si>
-    <t>soil layer 2</t>
-  </si>
-  <si>
-    <t>Laona soil l1</t>
-  </si>
-  <si>
-    <t>Laona soil l2</t>
-  </si>
-  <si>
-    <t>Laona soil l3</t>
-  </si>
-  <si>
-    <t>soil layer 3</t>
-  </si>
-  <si>
     <t>LA54:4</t>
   </si>
   <si>
@@ -550,6 +526,9 @@
   </si>
   <si>
     <t>LA54:7</t>
+  </si>
+  <si>
+    <t>soil</t>
   </si>
 </sst>
 </file>
@@ -1408,8 +1387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1470,11 +1449,11 @@
       <c r="G2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>161</v>
+      <c r="H2" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1499,11 +1478,11 @@
       <c r="G3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>164</v>
+      <c r="H3" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1528,11 +1507,11 @@
       <c r="G4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>162</v>
+      <c r="H4" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1557,11 +1536,11 @@
       <c r="G5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>164</v>
+      <c r="H5" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1586,11 +1565,11 @@
       <c r="G6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>168</v>
+      <c r="H6" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1615,11 +1594,11 @@
       <c r="G7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>162</v>
+      <c r="H7" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1644,11 +1623,11 @@
       <c r="G8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>164</v>
+      <c r="H8" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1673,11 +1652,11 @@
       <c r="G9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>168</v>
+      <c r="H9" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1703,10 +1682,10 @@
         <v>73</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1732,10 +1711,10 @@
         <v>76</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1790,10 +1769,10 @@
         <v>82</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1819,10 +1798,10 @@
         <v>86</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1848,10 +1827,10 @@
         <v>90</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1877,10 +1856,10 @@
         <v>94</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1906,10 +1885,10 @@
         <v>96</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1935,10 +1914,10 @@
         <v>99</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1964,10 +1943,10 @@
         <v>103</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1993,10 +1972,10 @@
         <v>106</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -2022,10 +2001,10 @@
         <v>109</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -2051,10 +2030,10 @@
         <v>112</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2080,10 +2059,10 @@
         <v>116</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2109,10 +2088,10 @@
         <v>120</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="4"/>
@@ -2140,10 +2119,10 @@
         <v>123</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -2171,10 +2150,10 @@
         <v>126</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -2205,7 +2184,7 @@
         <v>165</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -2233,10 +2212,10 @@
         <v>133</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -2264,10 +2243,10 @@
         <v>137</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -2298,7 +2277,7 @@
         <v>165</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>

--- a/results/palaepaphos/data/tga_PP.xlsx
+++ b/results/palaepaphos/data/tga_PP.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uine\Documents\R\MB\results\palaepaphos\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\R\MB\results\palaepaphos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B7A41B-E10A-41ED-BD3C-68CC9003ACCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="0" windowWidth="16575" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="0" windowWidth="16575" windowHeight="15495"/>
   </bookViews>
   <sheets>
     <sheet name="TGA701-Table" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -57,33 +56,9 @@
     <t>Batch #63</t>
   </si>
   <si>
-    <t>PP-1</t>
-  </si>
-  <si>
-    <t>PP-2</t>
-  </si>
-  <si>
-    <t>PP-3</t>
-  </si>
-  <si>
-    <t>PP-4</t>
-  </si>
-  <si>
-    <t>PP-5</t>
-  </si>
-  <si>
     <t>1.067</t>
   </si>
   <si>
-    <t>PP-6</t>
-  </si>
-  <si>
-    <t>PP-7</t>
-  </si>
-  <si>
-    <t>PP-8</t>
-  </si>
-  <si>
     <t>1.0063</t>
   </si>
   <si>
@@ -477,24 +452,6 @@
     <t>PP-9 (2)</t>
   </si>
   <si>
-    <t>PP-8 (2)</t>
-  </si>
-  <si>
-    <t>PP-7 (2)</t>
-  </si>
-  <si>
-    <t>PP-6 (2)</t>
-  </si>
-  <si>
-    <t>PP-5 (2)</t>
-  </si>
-  <si>
-    <t>PP-4 (2)</t>
-  </si>
-  <si>
-    <t>PP-3 (2)</t>
-  </si>
-  <si>
     <t>Wet</t>
   </si>
   <si>
@@ -529,12 +486,54 @@
   </si>
   <si>
     <t>soil</t>
+  </si>
+  <si>
+    <t>S-1</t>
+  </si>
+  <si>
+    <t>S-2</t>
+  </si>
+  <si>
+    <t>S-3</t>
+  </si>
+  <si>
+    <t>S-4</t>
+  </si>
+  <si>
+    <t>S-5</t>
+  </si>
+  <si>
+    <t>S-6</t>
+  </si>
+  <si>
+    <t>S-7</t>
+  </si>
+  <si>
+    <t>S-8</t>
+  </si>
+  <si>
+    <t>S-8 (2)</t>
+  </si>
+  <si>
+    <t>S-7 (2)</t>
+  </si>
+  <si>
+    <t>S-6 (2)</t>
+  </si>
+  <si>
+    <t>S-5 (2)</t>
+  </si>
+  <si>
+    <t>S-4 (2)</t>
+  </si>
+  <si>
+    <t>S-3 (2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -1384,11 +1383,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1409,27 +1408,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -1438,27 +1437,27 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>153</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1467,27 +1466,27 @@
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1496,27 +1495,27 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -1525,27 +1524,27 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1554,27 +1553,27 @@
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1583,27 +1582,27 @@
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1612,27 +1611,27 @@
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1641,27 +1640,27 @@
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -1670,27 +1669,27 @@
         <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -1699,22 +1698,22 @@
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1728,556 +1727,556 @@
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="I24" s="5" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="4"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -2287,28 +2286,28 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
